--- a/structured_output.xlsx
+++ b/structured_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,8 +444,16 @@
           <t>Europe</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -458,7 +466,11 @@
           <t>France</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,12 +480,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Munich</t>
         </is>
       </c>
     </row>
@@ -485,12 +497,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Frankfurt</t>
         </is>
       </c>
     </row>
@@ -505,54 +517,7 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Frankfurt</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Cologne</t>
         </is>

--- a/structured_output.xlsx
+++ b/structured_output.xlsx
@@ -1,34 +1,257 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarlettfrancini/Projects/Timao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1413FA-79A3-554B-B9FC-2A027D40BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>Notre compréhension de vos enjeux</t>
+  </si>
+  <si>
+    <t>Vos enjeux</t>
+  </si>
+  <si>
+    <t>Assurer une expérience mobile fluide et moderne</t>
+  </si>
+  <si>
+    <t>Sécuriser l’attribution et l’application des droits pour tous les profils d’usagers</t>
+  </si>
+  <si>
+    <t>Accompagner la transformation urbaine par un système adaptable</t>
+  </si>
+  <si>
+    <t>Outiller la Ville pour piloter sa politique de stationnement et augmenter son attractivité</t>
+  </si>
+  <si>
+    <t>Augmenter le taux d’équipement mobile pour assurer l’adhésion et la performance du service</t>
+  </si>
+  <si>
+    <t>Nos atouts pour y répondre</t>
+  </si>
+  <si>
+    <t>Valeur technique (40 points)</t>
+  </si>
+  <si>
+    <t>Qualité de la description de l’équipe et de la méthodologie dédiée à la mise en place, au développement et au suivi de la solution (10 pts)</t>
+  </si>
+  <si>
+    <t>Description de l’équipe (5 points)</t>
+  </si>
+  <si>
+    <t>Fonctions et expérience professionnelle du référent</t>
+  </si>
+  <si>
+    <t>Moyens humains supplémentaires</t>
+  </si>
+  <si>
+    <t>Méthodologie d’exécution proposée pour le déploiement et le suivi de la solution (5 points)</t>
+  </si>
+  <si>
+    <t>Mise en place du système avec remise d’un calendrier prévisionnel détaillé</t>
+  </si>
+  <si>
+    <t>Déploiement du système (CCTP 3.2)</t>
+  </si>
+  <si>
+    <t>Réunion de lancement</t>
+  </si>
+  <si>
+    <t>Période de préparation (CCTP 3.2.1)</t>
+  </si>
+  <si>
+    <t>Recette métier et vérification d’aptitude (CCTP 3.2.2)</t>
+  </si>
+  <si>
+    <t>Mise en production et vérification de service régulier (CCTP 3.2.3)</t>
+  </si>
+  <si>
+    <t>Calendrier prévisionnel détaillé</t>
+  </si>
+  <si>
+    <t>Communication (CCTP 3.3)</t>
+  </si>
+  <si>
+    <t>Formation des utilisateurs métier de la Ville (CCTP 4.3)</t>
+  </si>
+  <si>
+    <t>Maintenance et assistance (CCTP 3.5)</t>
+  </si>
+  <si>
+    <t>Prestations de réversibilité (CCTP 4.4)</t>
+  </si>
+  <si>
+    <t>Mise en place du service usager</t>
+  </si>
+  <si>
+    <t>Moyens techniques pour contrôler l’exécution des prestations en semaine et le dimanche</t>
+  </si>
+  <si>
+    <t>Relation avec les usagers (CCTP 2.4)</t>
+  </si>
+  <si>
+    <t>Production de documents justificatifs à la suite d’éventuelles observations ou plaintes d’usagers (CCTP 2.5)</t>
+  </si>
+  <si>
+    <t>Organisation et moyens techniques</t>
+  </si>
+  <si>
+    <t>Gouvernance</t>
+  </si>
+  <si>
+    <t>Comité de projet</t>
+  </si>
+  <si>
+    <t>Comité de coordination</t>
+  </si>
+  <si>
+    <t>Outils</t>
+  </si>
+  <si>
+    <t>Qualité/adéquation de la richesse fonctionnelle, de l’ergonomie et de l’architecture technique et financière de la solution (30 pts)</t>
+  </si>
+  <si>
+    <t>Fonctionnalités de la solution (10 points)</t>
+  </si>
+  <si>
+    <t>Ergonomie, affichage et facilité d’utilisation</t>
+  </si>
+  <si>
+    <t>Parcours usager type</t>
+  </si>
+  <si>
+    <t>Fonctionnalités de la solution pour le service stationnement de la Ville (CCTP 1.3 et 2.2)</t>
+  </si>
+  <si>
+    <t>Prestations à bons de commande (CCTP 1.4)</t>
+  </si>
+  <si>
+    <t>Synthèse des délais (CCTP 1.5)</t>
+  </si>
+  <si>
+    <t>Prérequis et éléments techniques (15 points)</t>
+  </si>
+  <si>
+    <t>Mode d’hébergement des données et de la solution</t>
+  </si>
+  <si>
+    <t>Investissement, intégration et paramétrage du système (CCTP 3.4, 2.3 et 4.1)</t>
+  </si>
+  <si>
+    <t>Exploitation (CCTP 3.6)</t>
+  </si>
+  <si>
+    <t>Sécurité du système et protection des données (CCTP 3.7)</t>
+  </si>
+  <si>
+    <t>Capacité d’intégrer des fonctionnalités additionnelles développées par le concentrateur de tickets  (CCTP 4.2)</t>
+  </si>
+  <si>
+    <t>Mode de restitution des données sous forme statistiques en indiquant leur étendue (articles 2.6 et 3.1 CCTP) (15 points)</t>
+  </si>
+  <si>
+    <t>Données statistiques et financières rendant compte de l’évolution de l’exploitation (CCTP 2.6)</t>
+  </si>
+  <si>
+    <t>Mise en oeuvre de la gestion des abonnements et des transactions électroniques (CCTP 3.1)</t>
+  </si>
+  <si>
+    <t>Décrire le mécanisme d’envoi des tickets vers le concentrateur de tickets IER ou équivalent.
+Expliquer comment l’information de paiement est transmise en temps réel aux PDA de contrôle via la solution IER TeFPS (ou système équivalent).</t>
+  </si>
+  <si>
+    <t>Mentionner la compatibilité de votre solution avec les systèmes de contrôle utilisés par la Ville.</t>
+  </si>
+  <si>
+    <t>Présenter les moyens de paiement acceptés, notamment les CB à puce (EMV).</t>
+  </si>
+  <si>
+    <t>Expliquer le processus de sécurisation, de transmission et de validation des paiements.</t>
+  </si>
+  <si>
+    <t>Préciser l’interfaçage avec le système bancaire ou de compensation.</t>
+  </si>
+  <si>
+    <t>Détailler les types de données enregistrées (transactions, abonnements, erreurs, usage, etc.).</t>
+  </si>
+  <si>
+    <t>Expliquer la méthode de stockage et d’analyse (par ex. : datamart, outil de visualisation, export CSV/Excel).</t>
+  </si>
+  <si>
+    <t>Proposer une fréquence de partage des données avec la Ville, de préférence mensuelle, en précisant si elle est paramétrable.</t>
+  </si>
+  <si>
+    <t>Présenter les interfaces ou protocoles d’échange avec les systèmes de la Ville.</t>
+  </si>
+  <si>
+    <t>Préciser les flux paramétrables (par exemple : informations d’abonnement, paiements, tickets envoyés, historiques).</t>
+  </si>
+  <si>
+    <t>Mentionner les outils utilisés pour assurer cette connectivité (API, web services, fichiers batch…).</t>
+  </si>
+  <si>
+    <t>Existence de systèmes d’abonnements ou similaires permettant aux usagers visiteurs de diminuer/supprimer les frais financiers associés à l’achat de tickets (5 points)</t>
+  </si>
+  <si>
+    <t>Coût d'utilisation du service pour l’usager et pour la Ville (50 points)</t>
+  </si>
+  <si>
+    <t>Pour l’usager</t>
+  </si>
+  <si>
+    <t>Pour la ville</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +270,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,119 +572,639 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Paris</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Marseille</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Frankfurt</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cologne</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
